--- a/review of benchmarking - ranking of methods.xlsx
+++ b/review of benchmarking - ranking of methods.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="414">
   <si>
     <t>A systematic performance evaluation of clustering methods for single-cell RNA-seq data</t>
   </si>
@@ -143,6 +143,12 @@
     <t>scIMC: a platform for benchmarking comparison and visualization analysis of scRNA-seq data imputation methods</t>
   </si>
   <si>
+    <t>Exploring the optimization of autoencoder design for imputing single-cell RNA sequencing data</t>
+  </si>
+  <si>
+    <t>Evaluating imputation methods for single-cell RNA-seq data</t>
+  </si>
+  <si>
     <t>MAGIC</t>
   </si>
   <si>
@@ -152,6 +158,9 @@
     <t>LLSimpute</t>
   </si>
   <si>
+    <t>Autoencoder</t>
+  </si>
+  <si>
     <t>kNN</t>
   </si>
   <si>
@@ -161,6 +170,9 @@
     <t>Low-rank</t>
   </si>
   <si>
+    <t>ZINBWaVE</t>
+  </si>
+  <si>
     <t>scVI</t>
   </si>
   <si>
@@ -185,6 +197,9 @@
     <t>scUnif</t>
   </si>
   <si>
+    <t>NE</t>
+  </si>
+  <si>
     <t>SAVERX</t>
   </si>
   <si>
@@ -203,6 +218,9 @@
     <t>scNPF</t>
   </si>
   <si>
+    <t>scScope</t>
+  </si>
+  <si>
     <t>bayNorm</t>
   </si>
   <si>
@@ -218,9 +236,6 @@
     <t>scGNN</t>
   </si>
   <si>
-    <t>scScope</t>
-  </si>
-  <si>
     <t>scRecover</t>
   </si>
   <si>
@@ -251,6 +266,12 @@
     <t>Evaluation of machine learning approaches for cell-type identification from single-cell transcriptomics data</t>
   </si>
   <si>
+    <t>Assessing parameter efficient methods for pre-trained language model in annotating scRNA-seq data</t>
+  </si>
+  <si>
+    <t>A comparison of scRNA-seq annotation methods based on experimentally labeled immune cell subtype dataset</t>
+  </si>
+  <si>
     <t>SVM</t>
   </si>
   <si>
@@ -266,6 +287,12 @@
     <t>ElasticNet</t>
   </si>
   <si>
+    <t>Adapter</t>
+  </si>
+  <si>
+    <t>TOSICA</t>
+  </si>
+  <si>
     <t>SingleR</t>
   </si>
   <si>
@@ -287,6 +314,12 @@
     <t>LR</t>
   </si>
   <si>
+    <t>Freezeing layers tuning</t>
+  </si>
+  <si>
+    <t>scBERT</t>
+  </si>
+  <si>
     <t>CP</t>
   </si>
   <si>
@@ -308,6 +341,12 @@
     <t>RF</t>
   </si>
   <si>
+    <t>BitFit</t>
+  </si>
+  <si>
+    <t>scDeepSort</t>
+  </si>
+  <si>
     <t>RPC</t>
   </si>
   <si>
@@ -326,6 +365,9 @@
     <t>NN</t>
   </si>
   <si>
+    <t>Low-rank adaptation</t>
+  </si>
+  <si>
     <t>ACTINN</t>
   </si>
   <si>
@@ -341,6 +383,12 @@
     <t>DT</t>
   </si>
   <si>
+    <t>Fine-tuning</t>
+  </si>
+  <si>
+    <t>Cell BLAST</t>
+  </si>
+  <si>
     <t>SCINA</t>
   </si>
   <si>
@@ -356,10 +404,16 @@
     <t>XGB</t>
   </si>
   <si>
+    <t>scmapcluster</t>
+  </si>
+  <si>
     <t>Garnett</t>
   </si>
   <si>
-    <t>scmapcluster</t>
+    <t>scMAE</t>
+  </si>
+  <si>
+    <t>scFseCluster</t>
   </si>
   <si>
     <t>LAmbDA</t>
@@ -371,6 +425,12 @@
     <t>NMC</t>
   </si>
   <si>
+    <t>scDeepCluster</t>
+  </si>
+  <si>
+    <t>monocle2</t>
+  </si>
+  <si>
     <t>DigitalCellSorter</t>
   </si>
   <si>
@@ -419,6 +479,9 @@
     <t>glmmTMB</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>DEsingle</t>
   </si>
   <si>
@@ -518,6 +581,9 @@
     <t>Performance assessment of sample-specific network control methods for bulk and single-cell biological data analysis</t>
   </si>
   <si>
+    <t>Topological benchmarking of algorithms to infer gene regulatory networks from single-cell RNA-seq data</t>
+  </si>
+  <si>
     <t>GRNBOOST2</t>
   </si>
   <si>
@@ -536,6 +602,9 @@
     <t>CSN</t>
   </si>
   <si>
+    <t>PPCOR</t>
+  </si>
+  <si>
     <t>GENIE3</t>
   </si>
   <si>
@@ -551,9 +620,6 @@
     <t>SSN</t>
   </si>
   <si>
-    <t>PPCOR</t>
-  </si>
-  <si>
     <t>SCNS</t>
   </si>
   <si>
@@ -563,6 +629,9 @@
     <t>SPCC</t>
   </si>
   <si>
+    <t>SINCERITIES</t>
+  </si>
+  <si>
     <t>GeneNet</t>
   </si>
   <si>
@@ -590,9 +659,6 @@
     <t>Empirical Bayes</t>
   </si>
   <si>
-    <t>SINCERITIES</t>
-  </si>
-  <si>
     <t>SILGGM</t>
   </si>
   <si>
@@ -644,12 +710,24 @@
     <t>Systematic evaluation of transcriptomics-based deconvolution methods and references using thousands of clinical samples</t>
   </si>
   <si>
+    <t>Heterogeneous pseudobulk simulation enables realistic benchmarking of cell-type deconvolution methods</t>
+  </si>
+  <si>
+    <t>Fourteen years of cellular deconvolution: methodology, applications, technical evaluation and outstanding challenges</t>
+  </si>
+  <si>
     <t>OLS</t>
   </si>
   <si>
     <t>xCell</t>
   </si>
   <si>
+    <t>debCAM</t>
+  </si>
+  <si>
+    <t>ARIC</t>
+  </si>
+  <si>
     <t>nnls</t>
   </si>
   <si>
@@ -662,12 +740,24 @@
     <t>DCQ</t>
   </si>
   <si>
+    <t>linseed</t>
+  </si>
+  <si>
+    <t>AdRoit</t>
+  </si>
+  <si>
     <t>MCPcounter</t>
   </si>
   <si>
     <t>DeconRNAseq</t>
   </si>
   <si>
+    <t>MuSiC</t>
+  </si>
+  <si>
+    <t>AutoGeneS</t>
+  </si>
+  <si>
     <t>RLR</t>
   </si>
   <si>
@@ -677,36 +767,81 @@
     <t>dtangle</t>
   </si>
   <si>
+    <t>Robust Partial Correlations</t>
+  </si>
+  <si>
+    <t>BayCount</t>
+  </si>
+  <si>
     <t>FARDEEP</t>
   </si>
   <si>
     <t>TIMER</t>
   </si>
   <si>
+    <t>weighted robust linear regression</t>
+  </si>
+  <si>
+    <t>BayICE</t>
+  </si>
+  <si>
     <t>Lasso</t>
   </si>
   <si>
-    <t>Music</t>
-  </si>
-  <si>
     <t>GEDIT</t>
   </si>
   <si>
+    <t>BayesCCE</t>
+  </si>
+  <si>
     <t>Ridge</t>
   </si>
   <si>
+    <t>non-negative least squares (nnls)</t>
+  </si>
+  <si>
+    <t>BayesPrism</t>
+  </si>
+  <si>
     <t>elastic net</t>
   </si>
   <si>
     <t>SAVANT</t>
   </si>
   <si>
+    <t>debCAM-marker</t>
+  </si>
+  <si>
+    <t>BisqueMarker</t>
+  </si>
+  <si>
+    <t>TOAST-marker</t>
+  </si>
+  <si>
+    <t>BisqueRef</t>
+  </si>
+  <si>
+    <t>gsva</t>
+  </si>
+  <si>
+    <t>BseqSC</t>
+  </si>
+  <si>
     <t>DSA</t>
   </si>
   <si>
+    <t>CPM</t>
+  </si>
+  <si>
+    <t>CellDistinguisher</t>
+  </si>
+  <si>
     <t>ssFrobenius</t>
   </si>
   <si>
+    <t>DAISM</t>
+  </si>
+  <si>
     <t>ssKL</t>
   </si>
   <si>
@@ -719,7 +854,79 @@
     <t>DWLS</t>
   </si>
   <si>
+    <t>DeCompress</t>
+  </si>
+  <si>
+    <t>DeMixT</t>
+  </si>
+  <si>
     <t>SCDC</t>
+  </si>
+  <si>
+    <t>Deblender</t>
+  </si>
+  <si>
+    <t>DecOT</t>
+  </si>
+  <si>
+    <t>DeconICA</t>
+  </si>
+  <si>
+    <t>DeconPeaker</t>
+  </si>
+  <si>
+    <t>DeconRNASeq</t>
+  </si>
+  <si>
+    <t>DigitalDLSorter</t>
+  </si>
+  <si>
+    <t>EMeth</t>
+  </si>
+  <si>
+    <t>ImmuCellAI</t>
+  </si>
+  <si>
+    <t>LinDeconSeq</t>
+  </si>
+  <si>
+    <t>Linseed</t>
+  </si>
+  <si>
+    <t>MIXTURE</t>
+  </si>
+  <si>
+    <t>MOMF</t>
+  </si>
+  <si>
+    <t>MethylResolver</t>
+  </si>
+  <si>
+    <t>MySort</t>
+  </si>
+  <si>
+    <t>NITUMID</t>
+  </si>
+  <si>
+    <t>PREDE</t>
+  </si>
+  <si>
+    <t>RNA-Sieve</t>
+  </si>
+  <si>
+    <t>ReFACTor</t>
+  </si>
+  <si>
+    <t>Scaden</t>
+  </si>
+  <si>
+    <t>TOAST</t>
+  </si>
+  <si>
+    <t>deconf</t>
+  </si>
+  <si>
+    <t>spatialDWLS</t>
   </si>
   <si>
     <t>A benchmark of batch-effect correction methods for single-cell RNA sequencing data</t>
@@ -1059,7 +1266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1075,6 +1282,11 @@
       <sz val="9.0"/>
       <color rgb="FF1D1C1D"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Monaco"/>
     </font>
     <font>
       <color theme="1"/>
@@ -1117,14 +1329,14 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Monaco"/>
-    </font>
-    <font>
       <sz val="14.0"/>
       <color rgb="FF333333"/>
       <name val="Georgia"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1167,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1177,39 +1389,45 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1471,213 +1689,214 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5"/>
+      <c r="A15" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1707,181 +1926,220 @@
       <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>42</v>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>41</v>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="3" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+    <row r="10">
+      <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>62</v>
+      <c r="A18" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>68</v>
+      <c r="A19" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>69</v>
+      <c r="A20" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1901,275 +2159,350 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>77</v>
+      <c r="B2" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="G5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="3" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="E11" s="9"/>
+      <c r="I11" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="I12" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="6" t="s">
-        <v>44</v>
+      <c r="I18" s="4" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="6" t="s">
-        <v>107</v>
+      <c r="B19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="6" t="s">
-        <v>117</v>
+      <c r="B20" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="6" t="s">
-        <v>112</v>
+      <c r="B21" s="7" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="6" t="s">
-        <v>118</v>
+      <c r="B22" s="7" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2189,288 +2522,294 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>127</v>
+      <c r="B2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>131</v>
+      <c r="A3" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>135</v>
+      <c r="A4" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>128</v>
+      <c r="A5" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="F9" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="F11" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="F13" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="F14" s="10" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="F17" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="F18" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="F13" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" s="9" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="19">
-      <c r="F19" s="12"/>
+      <c r="F19" s="13"/>
     </row>
     <row r="20">
-      <c r="F20" s="12"/>
+      <c r="F20" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2489,213 +2828,228 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>165</v>
+        <v>184</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>171</v>
+      <c r="A2" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>176</v>
+      <c r="A3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>180</v>
+      <c r="A4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>185</v>
+      <c r="A5" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>188</v>
+      <c r="A6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>169</v>
+      <c r="C9" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="12">
-      <c r="C12" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>197</v>
+      <c r="E13" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>203</v>
+      <c r="C14" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -2715,176 +3069,425 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>207</v>
+        <v>229</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>78</v>
+      <c r="A2" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>213</v>
+      <c r="A3" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>215</v>
+      <c r="A4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>218</v>
+      <c r="A5" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>211</v>
+      <c r="A6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>223</v>
+      <c r="A7" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>210</v>
+      <c r="A8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>226</v>
+      <c r="A9" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>213</v>
+      <c r="A10" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>211</v>
+      <c r="A11" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>215</v>
+      <c r="A12" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>227</v>
+      <c r="A13" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>218</v>
+      <c r="A14" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>228</v>
+      <c r="A15" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>229</v>
+      <c r="A16" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
-        <v>230</v>
+      <c r="A17" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>231</v>
+      <c r="A18" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="s">
-        <v>232</v>
+      <c r="A19" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>222</v>
+      <c r="A20" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="s">
-        <v>233</v>
+      <c r="A21" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="F22" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="F23" s="16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" s="16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" s="16" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="F26" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="F27" s="16" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="F28" s="16" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="F29" s="16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="F30" s="16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="F31" s="16" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" s="16" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" s="16" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" s="16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" s="16" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" s="16" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" s="16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" s="16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" s="16" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" s="16" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" s="16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" s="16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" s="16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="F48" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" s="16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" s="16" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2904,227 +3507,227 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>303</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>235</v>
+        <v>304</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>236</v>
+        <v>305</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>237</v>
+        <v>306</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>238</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>241</v>
+      <c r="C2" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>240</v>
+      <c r="A3" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>247</v>
+      <c r="A4" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>250</v>
+      <c r="A5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>246</v>
+      <c r="A6" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>239</v>
+      <c r="A7" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>242</v>
+      <c r="A8" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>258</v>
+      <c r="A9" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>63</v>
+      <c r="A10" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>251</v>
+      <c r="A11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>261</v>
+      <c r="A12" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>248</v>
+      <c r="A13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>47</v>
+      <c r="A14" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="14"/>
-      <c r="E15" s="6" t="s">
-        <v>245</v>
+      <c r="A15" s="15"/>
+      <c r="E15" s="7" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="6" t="s">
-        <v>264</v>
+      <c r="E16" s="7" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3144,413 +3747,413 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>265</v>
+        <v>334</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>266</v>
+        <v>335</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>267</v>
+        <v>336</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>268</v>
+        <v>337</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>341</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>280</v>
+      <c r="F2" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="A3" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>279</v>
+      <c r="F3" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>274</v>
+      <c r="A4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>293</v>
+      <c r="A5" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>275</v>
+      <c r="I6" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>275</v>
+      <c r="B7" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>305</v>
+      <c r="D8" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>293</v>
+      <c r="B9" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>49</v>
+      <c r="B10" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>311</v>
+      <c r="B11" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>315</v>
+      <c r="B12" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>318</v>
+      <c r="B13" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>49</v>
+      <c r="B14" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>293</v>
+      <c r="B15" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>325</v>
+      <c r="B16" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>328</v>
+      <c r="B17" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="B18" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>333</v>
+      <c r="B19" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="20">
-      <c r="D20" s="3" t="s">
-        <v>334</v>
+      <c r="D20" s="4" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="21">
-      <c r="D21" s="3" t="s">
-        <v>335</v>
+      <c r="D21" s="4" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="22">
-      <c r="D22" s="3" t="s">
-        <v>336</v>
+      <c r="D22" s="4" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="23">
-      <c r="D23" s="3" t="s">
-        <v>337</v>
+      <c r="D23" s="4" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="24">
-      <c r="D24" s="3" t="s">
-        <v>338</v>
+      <c r="D24" s="4" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="25">
-      <c r="D25" s="3" t="s">
-        <v>339</v>
+      <c r="D25" s="4" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="26">
-      <c r="D26" s="3" t="s">
-        <v>340</v>
+      <c r="D26" s="4" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="27">
-      <c r="D27" s="3" t="s">
-        <v>341</v>
+      <c r="D27" s="4" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="28">
-      <c r="D28" s="3" t="s">
-        <v>342</v>
+      <c r="D28" s="4" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="29">
-      <c r="D29" s="3" t="s">
-        <v>343</v>
+      <c r="D29" s="4" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" s="3" t="s">
-        <v>344</v>
+      <c r="D30" s="4" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
